--- a/BAJRANG TRADING COMPANY.xlsx
+++ b/BAJRANG TRADING COMPANY.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BDS\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BDS\OneDrive\Desktop\YELLOW DAIMOND'S\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777F9144-D2FE-419D-9462-1284377C8614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC18262-942F-45C9-9C35-2E050E9F122C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1236,35 +1236,18 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1282,6 +1265,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1290,6 +1277,19 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1743,223 +1743,223 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="87"/>
+      <c r="D3" s="101"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="87"/>
+      <c r="D4" s="101"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="89"/>
+      <c r="D5" s="87"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="89"/>
+      <c r="D6" s="87"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="89">
+      <c r="C7" s="87">
         <v>9928271827</v>
       </c>
-      <c r="D7" s="89"/>
+      <c r="D7" s="87"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="89"/>
+      <c r="D8" s="87"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="89"/>
+      <c r="D9" s="87"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="96">
+      <c r="C10" s="91">
         <v>45558</v>
       </c>
-      <c r="D10" s="96"/>
+      <c r="D10" s="91"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="97" t="s">
+      <c r="C11" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="96"/>
+      <c r="D11" s="91"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="96">
+      <c r="C12" s="91">
         <v>45563</v>
       </c>
-      <c r="D12" s="96"/>
+      <c r="D12" s="91"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="97" t="s">
+      <c r="C13" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="96"/>
+      <c r="D13" s="91"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" s="8"/>
-      <c r="C16" s="84" t="s">
+      <c r="C16" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="85"/>
+      <c r="D16" s="99"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="94">
+      <c r="C17" s="89">
         <f>'Distributor Claim Sheet'!G28</f>
         <v>1239</v>
       </c>
-      <c r="D17" s="95"/>
+      <c r="D17" s="90"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="90">
+      <c r="C18" s="84">
         <f>'Distributor Claim Sheet'!H28</f>
         <v>3112</v>
       </c>
-      <c r="D18" s="91"/>
+      <c r="D18" s="85"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="90">
+      <c r="C19" s="84">
         <f>'Distributor Claim Sheet'!I28</f>
         <v>0</v>
       </c>
-      <c r="D19" s="91"/>
+      <c r="D19" s="85"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="90">
+      <c r="C20" s="84">
         <f>'Distributor Claim Sheet'!J28</f>
         <v>83778</v>
       </c>
-      <c r="D20" s="91"/>
+      <c r="D20" s="85"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="99">
+      <c r="C21" s="95">
         <f>SUM(C17:C20)</f>
         <v>88129</v>
       </c>
-      <c r="D21" s="100"/>
+      <c r="D21" s="96"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="101" t="s">
+      <c r="B22" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="98" t="s">
+      <c r="B23" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="98"/>
+      <c r="C23" s="93"/>
       <c r="D23" s="68">
         <f>'Scrap stock detail'!D9</f>
         <v>70</v>
       </c>
     </row>
     <row r="24" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="92" t="s">
+      <c r="B24" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
     </row>
     <row r="25" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="92"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
     </row>
     <row r="26" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="92"/>
-      <c r="C26" s="92"/>
-      <c r="D26" s="92"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
     </row>
     <row r="27" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="92"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="92"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="92"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
     </row>
     <row r="29" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
@@ -2018,6 +2018,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="B24:D28"/>
     <mergeCell ref="C7:D7"/>
@@ -2034,12 +2040,6 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.24" top="0.63" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -3483,11 +3483,11 @@
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="87" t="str">
+      <c r="B2" s="101" t="str">
         <f>Declaration!C3</f>
         <v>BAJRANG TRADING COMPANY</v>
       </c>
-      <c r="C2" s="87"/>
+      <c r="C2" s="101"/>
       <c r="D2" s="19"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
@@ -3697,7 +3697,7 @@
   <dimension ref="A2:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4192,20 +4192,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="26f0e883-195c-4097-964b-4652bc177b58" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="26f0e883-195c-4097-964b-4652bc177b58" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4404,6 +4404,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{687618BF-4687-456E-9C4B-C593496D954E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61BC63A8-6981-45C2-A473-37306D3BAA09}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="26f0e883-195c-4097-964b-4652bc177b58"/>
@@ -4416,14 +4424,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="fa66f92d-833a-4cb8-a712-221909bdb10d"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{687618BF-4687-456E-9C4B-C593496D954E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
